--- a/positive_yearly_earnings_per_share_2012_df.xlsx
+++ b/positive_yearly_earnings_per_share_2012_df.xlsx
@@ -655,12 +655,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -690,11 +696,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1015,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>5.29</v>
       </c>
     </row>
@@ -1015,7 +1023,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>3.76</v>
       </c>
     </row>
@@ -1023,7 +1031,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>8.44</v>
       </c>
     </row>
@@ -1031,7 +1039,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2.6</v>
       </c>
     </row>
@@ -1039,7 +1047,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>6.14</v>
       </c>
     </row>
@@ -1047,7 +1055,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.61</v>
       </c>
     </row>
@@ -1055,7 +1063,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1.15</v>
       </c>
     </row>
@@ -1063,7 +1071,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>3.49</v>
       </c>
     </row>
@@ -1071,7 +1079,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>4.47</v>
       </c>
     </row>
@@ -1079,7 +1087,7 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>4.71</v>
       </c>
     </row>
@@ -1087,7 +1095,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1.9</v>
       </c>
     </row>
@@ -1095,7 +1103,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>3.36</v>
       </c>
     </row>
@@ -1103,7 +1111,7 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>4.7</v>
       </c>
     </row>
@@ -1111,7 +1119,7 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>1.61</v>
       </c>
     </row>
@@ -1119,7 +1127,7 @@
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>8.26</v>
       </c>
     </row>
@@ -1127,7 +1135,7 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>3.03</v>
       </c>
     </row>
@@ -1135,7 +1143,7 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>4.95</v>
       </c>
     </row>
@@ -1143,7 +1151,7 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>3.44</v>
       </c>
     </row>
@@ -1151,7 +1159,7 @@
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0.18</v>
       </c>
     </row>
@@ -1159,7 +1167,7 @@
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>1.01</v>
       </c>
     </row>
@@ -1167,7 +1175,7 @@
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>4.34</v>
       </c>
     </row>
@@ -1175,7 +1183,7 @@
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>2.03</v>
       </c>
     </row>
@@ -1183,7 +1191,7 @@
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>3.91</v>
       </c>
     </row>
@@ -1191,7 +1199,7 @@
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0.26</v>
       </c>
     </row>
@@ -1199,7 +1207,7 @@
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>4.22</v>
       </c>
     </row>
@@ -1207,7 +1215,7 @@
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>2.74</v>
       </c>
     </row>
@@ -1215,7 +1223,7 @@
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>2.04</v>
       </c>
     </row>
@@ -1223,7 +1231,7 @@
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>2.61</v>
       </c>
     </row>
@@ -1231,7 +1239,7 @@
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>1.17</v>
       </c>
     </row>
@@ -1239,7 +1247,7 @@
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>1.93</v>
       </c>
     </row>
@@ -1247,7 +1255,7 @@
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>2.51</v>
       </c>
     </row>
@@ -1255,7 +1263,7 @@
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>7.96</v>
       </c>
     </row>
@@ -1263,7 +1271,7 @@
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0.98</v>
       </c>
     </row>
@@ -1271,7 +1279,7 @@
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0.64</v>
       </c>
     </row>
@@ -1279,7 +1287,7 @@
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>28.94</v>
       </c>
     </row>
@@ -1287,7 +1295,7 @@
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>2.5</v>
       </c>
     </row>
@@ -1295,7 +1303,7 @@
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>3.68</v>
       </c>
     </row>
@@ -1303,7 +1311,7 @@
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>5.7</v>
       </c>
     </row>
@@ -1311,7 +1319,7 @@
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>2.59</v>
       </c>
     </row>
@@ -1319,7 +1327,7 @@
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>5.19</v>
       </c>
     </row>
@@ -1327,7 +1335,7 @@
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>2.71</v>
       </c>
     </row>
@@ -1335,7 +1343,7 @@
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>0.04</v>
       </c>
     </row>
@@ -1343,7 +1351,7 @@
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>0.98</v>
       </c>
     </row>
@@ -1351,7 +1359,7 @@
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>6.21</v>
       </c>
     </row>
@@ -1359,7 +1367,7 @@
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>0.63</v>
       </c>
     </row>
@@ -1367,7 +1375,7 @@
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>1.25</v>
       </c>
     </row>
@@ -1375,7 +1383,7 @@
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>3.49</v>
       </c>
     </row>
@@ -1383,7 +1391,7 @@
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>13.42</v>
       </c>
     </row>
@@ -1391,7 +1399,7 @@
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>4.18</v>
       </c>
     </row>
@@ -1399,7 +1407,7 @@
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>0.53</v>
       </c>
     </row>
@@ -1407,7 +1415,7 @@
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>4.47</v>
       </c>
     </row>
@@ -1415,7 +1423,7 @@
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>3.49</v>
       </c>
     </row>
@@ -1423,7 +1431,7 @@
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>3.45</v>
       </c>
     </row>
@@ -1431,7 +1439,7 @@
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>1.48</v>
       </c>
     </row>
@@ -1439,7 +1447,7 @@
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>6.47</v>
       </c>
     </row>
@@ -1447,7 +1455,7 @@
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>0.21</v>
       </c>
     </row>
@@ -1455,7 +1463,7 @@
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>5.58</v>
       </c>
     </row>
@@ -1463,7 +1471,7 @@
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>2.41</v>
       </c>
     </row>
@@ -1471,7 +1479,7 @@
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>2.27</v>
       </c>
     </row>
@@ -1479,7 +1487,7 @@
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1487,7 +1495,7 @@
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>2.13</v>
       </c>
     </row>
@@ -1495,7 +1503,7 @@
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>3.01</v>
       </c>
     </row>
@@ -1503,7 +1511,7 @@
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>2.729</v>
       </c>
     </row>
@@ -1511,7 +1519,7 @@
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>1.9</v>
       </c>
     </row>
@@ -1519,7 +1527,7 @@
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>3.42</v>
       </c>
     </row>
@@ -1527,7 +1535,7 @@
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>3.54</v>
       </c>
     </row>
@@ -1535,7 +1543,7 @@
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>4.77</v>
       </c>
     </row>
@@ -1543,7 +1551,7 @@
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>2.55</v>
       </c>
     </row>
@@ -1551,7 +1559,7 @@
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>1.58</v>
       </c>
     </row>
@@ -1559,7 +1567,7 @@
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>1.15</v>
       </c>
     </row>
@@ -1567,7 +1575,7 @@
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>0.74</v>
       </c>
     </row>
@@ -1575,7 +1583,7 @@
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>3.2</v>
       </c>
     </row>
@@ -1583,7 +1591,7 @@
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>1.85</v>
       </c>
     </row>
@@ -1591,7 +1599,7 @@
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>1.58</v>
       </c>
     </row>
@@ -1599,7 +1607,7 @@
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>4.5</v>
       </c>
     </row>
@@ -1607,7 +1615,7 @@
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>1.47</v>
       </c>
     </row>
@@ -1615,7 +1623,7 @@
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>3.01</v>
       </c>
     </row>
@@ -1623,7 +1631,7 @@
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>0.14</v>
       </c>
     </row>
@@ -1631,7 +1639,7 @@
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>1.71</v>
       </c>
     </row>
@@ -1639,7 +1647,7 @@
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>4.17</v>
       </c>
     </row>
@@ -1647,7 +1655,7 @@
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>2.78</v>
       </c>
     </row>
@@ -1655,7 +1663,7 @@
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>9.710000000000001</v>
       </c>
     </row>
@@ -1663,7 +1671,7 @@
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>0.71</v>
       </c>
     </row>
@@ -1671,7 +1679,7 @@
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>3.65</v>
       </c>
     </row>
@@ -1679,7 +1687,7 @@
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>0.99</v>
       </c>
     </row>
@@ -1687,7 +1695,7 @@
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>5.98</v>
       </c>
     </row>
@@ -1695,7 +1703,7 @@
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>2.75</v>
       </c>
     </row>
@@ -1703,7 +1711,7 @@
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>4.44</v>
       </c>
     </row>
@@ -1711,7 +1719,7 @@
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>0.08</v>
       </c>
     </row>
@@ -1719,7 +1727,7 @@
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>14.53</v>
       </c>
     </row>
@@ -1727,7 +1735,7 @@
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>3.24</v>
       </c>
     </row>
@@ -1735,7 +1743,7 @@
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>3.11</v>
       </c>
     </row>
@@ -1743,7 +1751,7 @@
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>1.82</v>
       </c>
     </row>
@@ -1751,7 +1759,7 @@
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>1.01</v>
       </c>
     </row>
@@ -1759,7 +1767,7 @@
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>0.99</v>
       </c>
     </row>
@@ -1767,7 +1775,7 @@
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -1775,7 +1783,7 @@
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>2.64</v>
       </c>
     </row>
@@ -1783,7 +1791,7 @@
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>0.36</v>
       </c>
     </row>
@@ -1791,7 +1799,7 @@
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>5.22</v>
       </c>
     </row>
@@ -1799,7 +1807,7 @@
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>2.68</v>
       </c>
     </row>
@@ -1807,7 +1815,7 @@
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>0.42</v>
       </c>
     </row>
@@ -1815,7 +1823,7 @@
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1823,7 +1831,7 @@
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
         <v>1.72</v>
       </c>
     </row>
@@ -1831,7 +1839,7 @@
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>6.09</v>
       </c>
     </row>
@@ -1839,7 +1847,7 @@
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="2">
         <v>0.88</v>
       </c>
     </row>
@@ -1847,7 +1855,7 @@
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
         <v>8.41</v>
       </c>
     </row>
@@ -1855,7 +1863,7 @@
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
         <v>3.67</v>
       </c>
     </row>
@@ -1863,7 +1871,7 @@
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>2.89</v>
       </c>
     </row>
@@ -1871,7 +1879,7 @@
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
         <v>3.49</v>
       </c>
     </row>
@@ -1879,7 +1887,7 @@
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
         <v>4.97</v>
       </c>
     </row>
@@ -1887,7 +1895,7 @@
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>2.56</v>
       </c>
     </row>
@@ -1895,7 +1903,7 @@
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
         <v>2.51</v>
       </c>
     </row>
@@ -1903,7 +1911,7 @@
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
         <v>2.25</v>
       </c>
     </row>
@@ -1911,7 +1919,7 @@
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="2">
         <v>5.41</v>
       </c>
     </row>
@@ -1919,7 +1927,7 @@
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="2">
         <v>3.09</v>
       </c>
     </row>
@@ -1927,7 +1935,7 @@
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="2">
         <v>1.7</v>
       </c>
     </row>
@@ -1935,7 +1943,7 @@
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="2">
         <v>1.12</v>
       </c>
     </row>
@@ -1943,7 +1951,7 @@
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="2">
         <v>3.63</v>
       </c>
     </row>
@@ -1951,7 +1959,7 @@
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="2">
         <v>2.96</v>
       </c>
     </row>
@@ -1959,7 +1967,7 @@
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="2">
         <v>1.83</v>
       </c>
     </row>
@@ -1967,7 +1975,7 @@
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="2">
         <v>2.16</v>
       </c>
     </row>
@@ -1975,7 +1983,7 @@
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="2">
         <v>2.06</v>
       </c>
     </row>
@@ -1983,7 +1991,7 @@
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="2">
         <v>9.949999999999999</v>
       </c>
     </row>
@@ -1991,7 +1999,7 @@
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="2">
         <v>2.03</v>
       </c>
     </row>
@@ -1999,7 +2007,7 @@
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="2">
         <v>2.24</v>
       </c>
     </row>
@@ -2007,7 +2015,7 @@
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="2">
         <v>7.57</v>
       </c>
     </row>
@@ -2015,7 +2023,7 @@
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="2">
         <v>5.01</v>
       </c>
     </row>
@@ -2023,7 +2031,7 @@
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="2">
         <v>2.09</v>
       </c>
     </row>
@@ -2031,7 +2039,7 @@
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="2">
         <v>4.59</v>
       </c>
     </row>
@@ -2039,7 +2047,7 @@
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="2">
         <v>3.65</v>
       </c>
     </row>
@@ -2047,7 +2055,7 @@
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="2">
         <v>5.86</v>
       </c>
     </row>
@@ -2055,7 +2063,7 @@
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="2">
         <v>2.82</v>
       </c>
     </row>
@@ -2063,7 +2071,7 @@
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="2">
         <v>1.58</v>
       </c>
     </row>
@@ -2071,7 +2079,7 @@
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="2">
         <v>1.38</v>
       </c>
     </row>
@@ -2079,7 +2087,7 @@
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="2">
         <v>0.86</v>
       </c>
     </row>
@@ -2087,7 +2095,7 @@
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="2">
         <v>1.75</v>
       </c>
     </row>
@@ -2095,7 +2103,7 @@
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="2">
         <v>4.83</v>
       </c>
     </row>
@@ -2103,7 +2111,7 @@
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="2">
         <v>5.67</v>
       </c>
     </row>
@@ -2111,7 +2119,7 @@
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="2">
         <v>0.72</v>
       </c>
     </row>
@@ -2119,7 +2127,7 @@
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="2">
         <v>2.22</v>
       </c>
     </row>
@@ -2127,7 +2135,7 @@
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="2">
         <v>3.13</v>
       </c>
     </row>
@@ -2135,7 +2143,7 @@
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="2">
         <v>28.48</v>
       </c>
     </row>
@@ -2143,7 +2151,7 @@
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="2">
         <v>2.52</v>
       </c>
     </row>
@@ -2151,7 +2159,7 @@
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="2">
         <v>1.96</v>
       </c>
     </row>
@@ -2159,7 +2167,7 @@
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -2167,7 +2175,7 @@
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="2">
         <v>0.61</v>
       </c>
     </row>
@@ -2175,7 +2183,7 @@
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="2">
         <v>5.36</v>
       </c>
     </row>
@@ -2183,7 +2191,7 @@
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="2">
         <v>3.48</v>
       </c>
     </row>
@@ -2191,7 +2199,7 @@
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="2">
         <v>2.61</v>
       </c>
     </row>
@@ -2199,7 +2207,7 @@
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="2">
         <v>6.55</v>
       </c>
     </row>
@@ -2207,7 +2215,7 @@
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="2">
         <v>1.44</v>
       </c>
     </row>
@@ -2215,7 +2223,7 @@
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="2">
         <v>5.67</v>
       </c>
     </row>
@@ -2223,7 +2231,7 @@
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="2">
         <v>0.08</v>
       </c>
     </row>
@@ -2231,7 +2239,7 @@
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="2">
         <v>4.95</v>
       </c>
     </row>
@@ -2239,7 +2247,7 @@
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="2">
         <v>0.08</v>
       </c>
     </row>
@@ -2247,7 +2255,7 @@
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="2">
         <v>3.2</v>
       </c>
     </row>
@@ -2255,7 +2263,7 @@
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="2">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -2263,7 +2271,7 @@
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="2">
         <v>1.44</v>
       </c>
     </row>
@@ -2271,7 +2279,7 @@
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="2">
         <v>6.15</v>
       </c>
     </row>
@@ -2279,7 +2287,7 @@
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="2">
         <v>1.75</v>
       </c>
     </row>
@@ -2287,7 +2295,7 @@
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="2">
         <v>4.48</v>
       </c>
     </row>
@@ -2295,7 +2303,7 @@
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="2">
         <v>2.7</v>
       </c>
     </row>
@@ -2303,7 +2311,7 @@
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="2">
         <v>4.72</v>
       </c>
     </row>
@@ -2311,7 +2319,7 @@
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="2">
         <v>3.14</v>
       </c>
     </row>
@@ -2319,7 +2327,7 @@
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="2">
         <v>3.56</v>
       </c>
     </row>
@@ -2327,7 +2335,7 @@
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="2">
         <v>3.62</v>
       </c>
     </row>
@@ -2335,7 +2343,7 @@
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="2">
         <v>1.25</v>
       </c>
     </row>
@@ -2343,7 +2351,7 @@
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="2">
         <v>2.49</v>
       </c>
     </row>
@@ -2351,7 +2359,7 @@
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="2">
         <v>1.83</v>
       </c>
     </row>
@@ -2359,7 +2367,7 @@
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="2">
         <v>5.48</v>
       </c>
     </row>
@@ -2367,7 +2375,7 @@
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="2">
         <v>3.24</v>
       </c>
     </row>
@@ -2375,7 +2383,7 @@
       <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="2">
         <v>1.39</v>
       </c>
     </row>
@@ -2383,7 +2391,7 @@
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="2">
         <v>3.89</v>
       </c>
     </row>
@@ -2391,7 +2399,7 @@
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="2">
         <v>5.33</v>
       </c>
     </row>
@@ -2399,7 +2407,7 @@
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="2">
         <v>1.3</v>
       </c>
     </row>
@@ -2407,7 +2415,7 @@
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="2">
         <v>1.53</v>
       </c>
     </row>
@@ -2415,7 +2423,7 @@
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="2">
         <v>2.1</v>
       </c>
     </row>
@@ -2423,7 +2431,7 @@
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="2">
         <v>1.23</v>
       </c>
     </row>
@@ -2431,7 +2439,7 @@
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="2">
         <v>0.85</v>
       </c>
     </row>
@@ -2439,7 +2447,7 @@
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="2">
         <v>4.57</v>
       </c>
     </row>
@@ -2447,7 +2455,7 @@
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="2">
         <v>3.18</v>
       </c>
     </row>
@@ -2455,7 +2463,7 @@
       <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="2">
         <v>0.84</v>
       </c>
     </row>
@@ -2463,7 +2471,7 @@
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="2">
         <v>3.77</v>
       </c>
     </row>
@@ -2471,7 +2479,7 @@
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="2">
         <v>1.98</v>
       </c>
     </row>
@@ -2479,7 +2487,7 @@
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="2">
         <v>2.04</v>
       </c>
     </row>
@@ -2487,7 +2495,7 @@
       <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="2">
         <v>0.31</v>
       </c>
     </row>
@@ -2495,7 +2503,7 @@
       <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="2">
         <v>2.37</v>
       </c>
     </row>
@@ -2503,7 +2511,7 @@
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="2">
         <v>3.4</v>
       </c>
     </row>
@@ -2511,7 +2519,7 @@
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="2">
         <v>1.39</v>
       </c>
     </row>
@@ -2519,7 +2527,7 @@
       <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="2">
         <v>1.7</v>
       </c>
     </row>
@@ -2527,7 +2535,7 @@
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="2">
         <v>0.71</v>
       </c>
     </row>
@@ -2535,7 +2543,7 @@
       <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="2">
         <v>2.8</v>
       </c>
     </row>
@@ -2543,7 +2551,7 @@
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="2">
         <v>4.87</v>
       </c>
     </row>
@@ -2551,7 +2559,7 @@
       <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="2">
         <v>4.08</v>
       </c>
     </row>
@@ -2559,7 +2567,7 @@
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="2">
         <v>1.86</v>
       </c>
     </row>
@@ -2567,7 +2575,7 @@
       <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="2">
         <v>2.12</v>
       </c>
     </row>
@@ -2575,7 +2583,7 @@
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="2">
         <v>9.699999999999999</v>
       </c>
     </row>
@@ -2583,7 +2591,7 @@
       <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="2">
         <v>2.22</v>
       </c>
     </row>
@@ -2591,7 +2599,7 @@
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="2">
         <v>0.9</v>
       </c>
     </row>
@@ -2599,7 +2607,7 @@
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -2607,7 +2615,7 @@
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="2">
         <v>3.31</v>
       </c>
     </row>
@@ -2615,7 +2623,7 @@
       <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="2">
         <v>3.46</v>
       </c>
     </row>
@@ -2623,7 +2631,7 @@
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="2">
         <v>4.32</v>
       </c>
     </row>
@@ -2631,7 +2639,7 @@
       <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="2">
         <v>0.97</v>
       </c>
     </row>
